--- a/export_data/my_book.xlsx
+++ b/export_data/my_book.xlsx
@@ -444,7 +444,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Category id</t>
+          <t>Category</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -472,8 +472,10 @@
           <t>rub</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>7</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>category 7</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -500,8 +502,10 @@
           <t>rub</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>2</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>category 2</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -528,8 +532,10 @@
           <t>rub</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>8</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>category 8</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -556,8 +562,10 @@
           <t>rub</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>9</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>category 9</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -584,8 +592,10 @@
           <t>rub</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>9</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>category 9</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -612,8 +622,10 @@
           <t>rub</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>category 1</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -640,8 +652,10 @@
           <t>rub</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>6</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>category 6</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -668,8 +682,10 @@
           <t>rub</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>4</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>category 4</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -696,8 +712,10 @@
           <t>rub</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>8</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>category 8</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -724,8 +742,10 @@
           <t>rub</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>9</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>category 9</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>

--- a/export_data/my_book.xlsx
+++ b/export_data/my_book.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021-12-29 21:09:45.209337</t>
+          <t>29.12.2021 21:09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-12-29 21:09:45.210184</t>
+          <t>29.12.2021 21:09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -516,7 +516,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-12-29 21:09:45.210271</t>
+          <t>29.12.2021 21:09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-12-29 21:09:45.210329</t>
+          <t>29.12.2021 21:09</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-12-29 21:09:45.210360</t>
+          <t>29.12.2021 21:09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-12-29 21:09:45.210391</t>
+          <t>29.12.2021 21:09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021-12-29 21:09:45.210426</t>
+          <t>29.12.2021 21:09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021-12-29 21:09:45.210466</t>
+          <t>29.12.2021 21:09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021-12-29 21:09:45.210499</t>
+          <t>29.12.2021 21:09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -726,7 +726,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021-12-29 21:09:45.210532</t>
+          <t>29.12.2021 21:09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">

--- a/export_data/my_book.xlsx
+++ b/export_data/my_book.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29.12.2021 21:09</t>
+          <t>29.10.2021 21:09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29.12.2021 21:09</t>
+          <t>29.12.2020 21:09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -516,7 +516,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29.12.2021 21:09</t>
+          <t>01.12.2021 00:09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>29.12.2021 21:09</t>
+          <t>05.05.2021 21:09</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>29.12.2021 21:09</t>
+          <t>15.12.2019 21:09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>29.12.2021 21:09</t>
+          <t>11.11.2020 18:15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>29.12.2021 21:09</t>
+          <t>08.06.2021 21:09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>29.12.2021 21:09</t>
+          <t>27.08.2015 21:09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -726,7 +726,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29.12.2021 21:09</t>
+          <t>20.03.2021 16:09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">

--- a/export_data/my_book.xlsx
+++ b/export_data/my_book.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,16 +486,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29.12.2020 21:09</t>
+          <t>01.12.2021 00:09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>927</v>
+        <v>467</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -504,7 +504,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>category 2</t>
+          <t>category 8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -516,16 +516,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01.12.2021 00:09</t>
+          <t>05.05.2021 21:09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>467</v>
+        <v>779</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>category 8</t>
+          <t>category 9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05.05.2021 21:09</t>
+          <t>29.12.2021 21:09</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>779</v>
+        <v>205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -576,16 +576,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>29.12.2021 21:09</t>
+          <t>08.06.2021 21:09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>category 9</t>
+          <t>category 4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15.12.2019 21:09</t>
+          <t>20.03.2021 16:09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>917</v>
+        <v>693</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -624,130 +624,10 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>category 1</t>
+          <t>category 9</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>11.11.2020 18:15</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>130</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>rub</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>category 6</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08.06.2021 21:09</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>228</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>rub</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>category 4</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>27.08.2015 21:09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>698</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>rub</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>category 8</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>20.03.2021 16:09</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>693</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>rub</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>category 9</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>description</t>
         </is>

--- a/export_data/my_book.xlsx
+++ b/export_data/my_book.xlsx
@@ -17,13 +17,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +49,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,221 +428,349 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Operation type</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Currency</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>29.10.2021 21:09</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>rub</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>rub</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>category 7</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>29.12.2020 21:09</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>927</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>rub</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>category 2</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>01.12.2021 00:09</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" s="2" t="n">
         <v>467</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>rub</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>rub</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>category 8</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>05.05.2021 21:09</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" s="2" t="n">
         <v>779</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>rub</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>rub</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>category 9</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>29.12.2021 21:09</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>rub</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>rub</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>category 9</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>15.12.2019 21:09</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>917</v>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>rub</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>category 1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11.11.2020 18:15</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>rub</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>category 6</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>08.06.2021 21:09</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C9" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>rub</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>rub</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>category 4</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>27.08.2015 21:09</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>698</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>rub</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>category 8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>20.03.2021 16:09</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C11" s="2" t="n">
         <v>693</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>rub</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>rub</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>category 9</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>description</t>
         </is>
